--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-04.xlsx
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ace")] More Drones are approaching. We are quite certain they’re being controlled by enemy casters…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ace")] More Drones are approaching. We are quite certain they're being controlled by enemy casters...
 </t>
   </si>
   <si>
